--- a/PRACTICA Gasto, Tienda de algoritmo.xlsx
+++ b/PRACTICA Gasto, Tienda de algoritmo.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paty0\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1B60DED-60B8-481B-BEC1-622674E25D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F7E3F17-2984-4C4A-985B-8A754B76F7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2807EC4D-936D-4BD9-803E-A28CE007E2F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2807EC4D-936D-4BD9-803E-A28CE007E2F2}"/>
   </bookViews>
   <sheets>
     <sheet name="gasto" sheetId="1" r:id="rId1"/>
     <sheet name="tienda" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2004,7 +2003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30C1805-DAFE-4DC0-BEDE-E31DAE83E890}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="153" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="153" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -2249,8 +2248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02944B78-1BFD-45C6-ABD2-D12F9164A087}">
   <dimension ref="B1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
